--- a/results/BaggingClassifier_ElasticNet_randomsearch-estimator_df.xlsx
+++ b/results/BaggingClassifier_ElasticNet_randomsearch-estimator_df.xlsx
@@ -501,26 +501,25 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'Delta...
-                                                   'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0cef520&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b616da250&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.01,
+                                                                l1_ratio=0.7,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   random_state=42))])</t>
+                                   n_estimators=300, random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0d930a0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b619ff8b0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -530,11 +529,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.7, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.566687306501548</v>
+        <v>0.624944665570591</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,22 +541,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6244239631336406</v>
+        <v>0.6441693125669303</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4554673721340389</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -587,7 +586,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0da3040&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b616da1c0&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                 l1_ratio=0.01,
@@ -600,7 +599,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864424f10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5aea36e3d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -614,7 +613,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5862475704649619</v>
+        <v>0.5700556065881143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -625,19 +624,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6366504361939542</v>
+        <v>0.6430859674212038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.529189352692075</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 1 1 1 1 0 0 0 0 1]</t>
+          <t>[0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
     </row>
@@ -646,85 +645,6 @@
         <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('MinMaxScaler',
-                                                  MinMaxScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta...
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.95,
-                                                                max_iter=1000,
-                                                                penalty='elasticnet',
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=100, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('MinMaxScaler', MinMaxScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 100, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.95, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4995165048230064</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6344086021505376</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 1 1 0 1 1 1 1 1 0 0 0 1 0 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -747,10 +667,10 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98b10f47c0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b64062f10&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.5,
+                                                                l1_ratio=0.7,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
@@ -758,9 +678,9 @@
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98b117ca30&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b63fefd60&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -770,11 +690,92 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.7, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6392788583965053</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6497870906473057</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4928571428571429</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('MinMaxScaler',
+                                                  MinMaxScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta...
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b63fefbb0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                l1_ratio=0.95,
+                                                                max_iter=1000,
+                                                                penalty='elasticnet',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5bc99a4f40&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('MinMaxScaler', MinMaxScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.95, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5485106990047089</v>
+        <v>0.6255540064996251</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -782,22 +783,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5187157459558894</v>
+        <v>0.5076582122629894</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.4419413919413919</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1]</t>
+          <t>[0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -827,20 +828,20 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0ed0f10&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5bc99a4190&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                l1_ratio=0.001,
+                                                                l1_ratio=0.5,
                                                                 max_iter=1000,
                                                                 penalty='elasticnet',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=300, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f986434bfd0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b614faaf0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -850,11 +851,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.5, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5214491792140198</v>
+        <v>0.5536891712406586</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -865,19 +866,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.572884872424043</v>
+        <v>0.6112767687720249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5862470862470862</v>
+        <v>0.539241622574956</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 0]</t>
+          <t>[0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 1 1]</t>
         </is>
       </c>
     </row>
